--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Thang 4/Tuan4.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Thang 4/Tuan4.xlsx
@@ -214,6 +214,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -224,27 +245,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +530,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,60 +539,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
         <v>5</v>
@@ -606,10 +606,10 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1">
         <v>9</v>
       </c>
@@ -628,6 +628,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -635,8 +637,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
